--- a/epargnes_export.xlsx
+++ b/epargnes_export.xlsx
@@ -537,11 +537,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Produit Fisc</t>
+          <t>Crypto Risquee</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="C6" t="n">
         <v>0.3</v>

--- a/epargnes_export.xlsx
+++ b/epargnes_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>taux_interet</t>
+          <t>taux_interet_annuel</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>frais_gestion_annuels</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>inflation_annuelle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>fiscalite</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>duree_min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>versement_max</t>
         </is>
@@ -476,6 +486,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>22950</v>
       </c>
     </row>
@@ -495,6 +511,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>12000</v>
       </c>
     </row>
@@ -508,12 +530,18 @@
         <v>0.025</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>48</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>61200</v>
       </c>
     </row>
@@ -527,12 +555,18 @@
         <v>0.045</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.172</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>96</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -544,12 +578,18 @@
         <v>0.15</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
